--- a/results/BaggingClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
+++ b/results/BaggingClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.6938775510204083</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6774193548387096</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.7227272727272727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.7110047846889952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.6764842300556586</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.7512544802867385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.6733048057932851</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.5625</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.803921568627451</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.6969001148105626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.6641148325358851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.6664959016393442</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.6977395898917323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.6855059051648158</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.65</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6575342465753424</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7500000000000001</v>
+        <v>0.75177304964539</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6236559139784946</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6537671232876712</v>
+        <v>0.665282392026578</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6074162679425837</v>
+        <v>0.5476076555023923</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5991379310344829</v>
+        <v>0.4869976359338061</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6544557372219767</v>
+        <v>0.6563247954845854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6267148683722655</v>
+        <v>0.5353974427413</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5507246376811595</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6935483870967742</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7350427350427351</v>
+        <v>0.7735849056603775</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.653225806451613</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6409090909090909</v>
+        <v>0.7411483253588517</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6428836863619474</v>
+        <v>0.7367924528301888</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.660596600763094</v>
+        <v>0.7478389205144423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6597299640777903</v>
+        <v>0.7435179549604384</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.8</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7599999999999999</v>
+        <v>0.854368932038835</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7451388888888889</v>
+        <v>0.836111111111111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7533492822966508</v>
+        <v>0.8473684210526315</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7404651162790696</v>
+        <v>0.836823020236285</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7632915173237754</v>
+        <v>0.8508363201911587</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7440360090022505</v>
+        <v>0.8400303374475039</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/BaggingClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
+++ b/results/BaggingClassifierDecisionTreeClassifier_randomsearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6938775510204083</v>
+        <v>0.6966292134831462</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7227272727272727</v>
+        <v>0.717688679245283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7110047846889952</v>
+        <v>0.7140538033395176</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6764842300556586</v>
+        <v>0.7091393490096143</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7512544802867385</v>
+        <v>0.7207699330493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6733048057932851</v>
+        <v>0.7084667610780838</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5625</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8545454545454545</v>
+        <v>0.75</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.7857142857142856</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6969001148105626</v>
+        <v>0.8087264150943396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6641148325358851</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6664959016393442</v>
+        <v>0.8046218487394957</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6977395898917323</v>
+        <v>0.8078514911746805</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6989247311827957</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6855059051648158</v>
+        <v>0.8056383843860125</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.131578947368421</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6162790697674418</v>
+        <v>0.85</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9636363636363636</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75177304964539</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.8279569892473119</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.665282392026578</v>
+        <v>0.8306603773584906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5476076555023923</v>
+        <v>0.825139146567718</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4869976359338061</v>
+        <v>0.8263305322128851</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6563247954845854</v>
+        <v>0.8296206127003449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5353974427413</v>
+        <v>0.8272341194542333</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.803921568627451</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.8935574229691876</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.8910018552875696</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.8918604651162791</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.8929550314749556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8924731182795699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.8922980745186295</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7555555555555555</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8192771084337349</v>
+        <v>0.845360824742268</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D23" t="n">
-        <v>0.854368932038835</v>
+        <v>0.8314606741573033</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.836111111111111</v>
+        <v>0.8381944444444445</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8388218923933211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.836823020236285</v>
+        <v>0.8384107494497857</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8508363201911587</v>
+        <v>0.839053166069295</v>
       </c>
       <c r="C26" t="n">
         <v>0.8387096774193549</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8400303374475039</v>
+        <v>0.8387844094117471</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
